--- a/biology/Zoologie/Cnemaspis/Cnemaspis.xlsx
+++ b/biology/Zoologie/Cnemaspis/Cnemaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus de 200 espèces de ce genre se rencontrent en grande majorité en Asie du Sud, et Asie du Sud-Est, une douzaine d'espèces vivent également en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus de 200 espèces de ce genre se rencontrent en grande majorité en Asie du Sud, et Asie du Sud-Est, une douzaine d'espèces vivent également en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos relativement petits, à pupille ronde et donc principalement diurnes vivant dans des milieux plutôt boisés.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cnemaspis signifie "mollet-bouclier", du grec ancien Cnem- "κνήμη" (knếmê) voulant dire "mollet, tibia" et -aspis "ἀσπίς" (aspís) voulant dire "bouclier".
 </t>
@@ -604,37 +622,39 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (22 septembre 2023)[2] :
-Cnemaspis aaronbaueri Sayyed et al., 2019[3]
-Cnemaspis aceh Iskandar et al., 2017[4]
-Cnemaspis adangrawi Ampai et al., 2019[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (22 septembre 2023) :
+Cnemaspis aaronbaueri Sayyed et al., 2019
+Cnemaspis aceh Iskandar et al., 2017
+Cnemaspis adangrawi Ampai et al., 2019
 Cnemaspis adii Srinivasulu et al., 2015
 Cnemaspis affinis (Stoliczka, 1870)
 Cnemaspis africana (Werner, 1896)
-Cnemaspis agarwali Khandekar, 2019[6]
-Cnemaspis agayagangai Agarwal et al., 2022[7]
-Cnemaspis ajijae Sayyed et al., 2018[8]
+Cnemaspis agarwali Khandekar, 2019
+Cnemaspis agayagangai Agarwal et al., 2022
+Cnemaspis ajijae Sayyed et al., 2018
 Cnemaspis alantika Bauer et al., 2006
 Cnemaspis alwisi Mendis Wickramasinghe &amp; Munindradasa, 2007
-Cnemaspis amba Khandekar et al., 2019[9]
-Cnemaspis amboliensis Sayyed et al., 2018[8]
+Cnemaspis amba Khandekar et al., 2019
+Cnemaspis amboliensis Sayyed et al., 2018
 Cnemaspis amith Manamendra-Arachchi et al., 2007
-Cnemaspis anamudiensis Cyriac et al., 2018[10]
-Cnemaspis anandani Murthy et al., 2019[11]
-Cnemaspis andalas Iskandar et al., 2017[4]
+Cnemaspis anamudiensis Cyriac et al., 2018
+Cnemaspis anandani Murthy et al., 2019
+Cnemaspis andalas Iskandar et al., 2017
 Cnemaspis andersonii (Annandale, 1905)
-Cnemaspis anslemi Karunarathna &amp; Ukuwela, 2019[12]
+Cnemaspis anslemi Karunarathna &amp; Ukuwela, 2019
 Cnemaspis argus Dring, 1979
 Cnemaspis assamensis Das &amp; Sengupta, 2000
 Cnemaspis aurantiacopes Grismer &amp; Ngo, 2007
-Cnemaspis auriventralis Rujirawan et al., 2022[13]
+Cnemaspis auriventralis Rujirawan et al., 2022
 Cnemaspis australis Manamendra-Arachchi et al., 2007
-Cnemaspis avasabinae Agarwal et al., 2020[14]
-Cnemaspis azhagu Khandekar et al., 2022[15]
-Cnemaspis balerion Pal et al., 2021[16]
-Cnemaspis bangara Agarwal et al., 2020[17]
+Cnemaspis avasabinae Agarwal et al., 2020
+Cnemaspis azhagu Khandekar et al., 2022
+Cnemaspis balerion Pal et al., 2021
+Cnemaspis bangara Agarwal et al., 2020
 Cnemaspis barbouri Perret, 1986
 Cnemaspis baueri Das &amp; Grismer, 2003
 Cnemaspis bayuensis Grismer et al., 2008
@@ -643,120 +663,120 @@
 Cnemaspis biocellata Grismer et al., 2008
 Cnemaspis boiei (Gray, 1842)
 Cnemaspis boulengeri Strauch, 1887
-Cnemaspis butewai Karunarathna et al., 2019[18]
+Cnemaspis butewai Karunarathna et al., 2019
 Cnemaspis caudanivea Grismer &amp; Ngo, 2007
 Cnemaspis chanardi Grismer et al., 2010
 Cnemaspis chanthaburiensis Bauer &amp; Das, 1998
-Cnemaspis chengodumalaensis Cyriac et al., 2020[19]
+Cnemaspis chengodumalaensis Cyriac et al., 2020
 Cnemaspis dezwaani Das, 2005
 Cnemaspis dickersonae (Schmidt, 1919)
 Cnemaspis dilepis Perret, 1963
-Cnemaspis dissanayakai Karunarathna et al. in Karunarathna et al., 2019[20]
+Cnemaspis dissanayakai Karunarathna et al. in Karunarathna et al., 2019
 Cnemaspis dringi Das &amp; Bauer, 1998
 Cnemaspis elgonensis Loveridge, 1936
-Cnemaspis fantastica Agarwal et al., 2022[7]
+Cnemaspis fantastica Agarwal et al., 2022
 Cnemaspis flavigaster Onn &amp; Grismer, 2008
-Cnemaspis flavigularis Pal et al., 2021[16]
-Cnemaspis flaviventralis Sayyed et al., 2016[21]
+Cnemaspis flavigularis Pal et al., 2021
+Cnemaspis flaviventralis Sayyed et al., 2016
 Cnemaspis flavolineata (Nicholls, 1949)
-Cnemaspis galaxia Pal et al., 2021[16]
-Cnemaspis ganeshaiahi Narayanan et al., 2023[22]
+Cnemaspis galaxia Pal et al., 2021
+Cnemaspis ganeshaiahi Narayanan et al., 2023
 Cnemaspis gemunu Bauer et al., 2007
 Cnemaspis gigas Perret, 1986
 Cnemaspis girii Mirza et al., 2014
 Cnemaspis goaensis Sharma, 1976
-Cnemaspis godagedarai De Silva et al., 2019[23]
-Cnemaspis gotaimbarai Karunarathna et al., 2019[18]
+Cnemaspis godagedarai De Silva et al., 2019
+Cnemaspis gotaimbarai Karunarathna et al., 2019
 Cnemaspis gracilis (Beddome, 1870)
-Cnemaspis graniticola Agarwal et al., 2020[17]
+Cnemaspis graniticola Agarwal et al., 2020
 Cnemaspis grismeri Wood et al., 2013
-Cnemaspis gunasekarai Amarasinghe et al., 2021[24]
-Cnemaspis gunawardanai Amarasinghe et al., 2021[24]
+Cnemaspis gunasekarai Amarasinghe et al., 2021
+Cnemaspis gunawardanai Amarasinghe et al., 2021
 Cnemaspis hangus Grismer et al., 2014
 Cnemaspis harimau Chan et al., 2010
 Cnemaspis heteropholis Bauer, 2002
-Cnemaspis hitihamii Karunarathna et al., 2019[18]
+Cnemaspis hitihamii Karunarathna et al., 2019
 Cnemaspis huaseesom Grismer et al., 2010
 Cnemaspis indica Gray, 1846
-Cnemaspis ingerorum Batuwita et al., 2019[25]
-Cnemaspis jackieii Pal et al., 2021[16]
+Cnemaspis ingerorum Batuwita et al., 2019
+Cnemaspis jackieii Pal et al., 2021
 Cnemaspis jacobsoni Das, 2005
-Cnemaspis jayaweerai Karunarathna et al., 2023[26]
+Cnemaspis jayaweerai Karunarathna et al., 2023
 Cnemaspis jerdonii (Theobald, 1868)
-Cnemaspis kalakadensis Khandekar et al., 2022[15]
+Cnemaspis kalakadensis Khandekar et al., 2022
 Cnemaspis kallima Manamendra-Arachchi et al., 2007
 Cnemaspis kamolnorranathi Grismer et al., 2010
-Cnemaspis kandambyi Batuwita &amp; Udugampala, 2017[27]
+Cnemaspis kandambyi Batuwita &amp; Udugampala, 2017
 Cnemaspis kandiana (Kelaart, 1852)
 Cnemaspis karsticola Grismer et al., 2008
-Cnemaspis kawminiae Karunarathna et al. in Karunarathna et al., 2019[28]
+Cnemaspis kawminiae Karunarathna et al. in Karunarathna et al., 2019
 Cnemaspis kendallii (Gray, 1845)
-Cnemaspis kivulegedarai Karunarathna et al., 2019[18]
+Cnemaspis kivulegedarai Karunarathna et al., 2019
 Cnemaspis koehleri Mertens, 1937
-Cnemaspis kohukumburai Karunarathna et al., 2019[18]
+Cnemaspis kohukumburai Karunarathna et al., 2019
 Cnemaspis kolhapurensis Giri et al., 2009
-Cnemaspis kotagamai Karunarathna et al. in Karunarathna et al., 2019[29]
+Cnemaspis kotagamai Karunarathna et al. in Karunarathna et al., 2019
 Cnemaspis kottiyoorensis Cyriac &amp; Umesh, 2014
-Cnemaspis koynaensis Khandekar et al., 2019[9]
-Cnemaspis krishnagiriensis Agarwal et al., 2021[30]
+Cnemaspis koynaensis Khandekar et al., 2019
+Cnemaspis krishnagiriensis Agarwal et al., 2021
 Cnemaspis kumarasinghei Mendis Wickramasinghe &amp; Munindradasa, 2007
 Cnemaspis kumpoli Taylor, 1963
-Cnemaspis lagang Nashriq et al., 2022[31]
+Cnemaspis lagang Nashriq et al., 2022
 Cnemaspis laoensis Grismer, 2010
 Cnemaspis latha Manamendra-Arachchi et al., 2007
-Cnemaspis leucura Kurita et al., 2017[32]
-Cnemaspis limayei Sayyed et al., 2018[8]
+Cnemaspis leucura Kurita et al., 2017
+Cnemaspis limayei Sayyed et al., 2018
 Cnemaspis limi Das &amp; Grismer, 2003
-Cnemaspis lineatubercularis Ampai et al., 2020[33]
-Cnemaspis lineogularis Wood et al., 2017[34]
-Cnemaspis lithophilis Pal et al., 2021[16]
+Cnemaspis lineatubercularis Ampai et al., 2020
+Cnemaspis lineogularis Wood et al., 2017
+Cnemaspis lithophilis Pal et al., 2021
 Cnemaspis littoralis (Jerdon, 1853)
-Cnemaspis lokugei Karunarathna et al., 2021[35]
-Cnemaspis maculicollis Cyriac et al., 2018[10]
-Cnemaspis magnifica Khandekar et al., 2020[36]
-Cnemaspis mahabali Sayyed et al., 2018[8]
+Cnemaspis lokugei Karunarathna et al., 2021
+Cnemaspis maculicollis Cyriac et al., 2018
+Cnemaspis magnifica Khandekar et al., 2020
+Cnemaspis mahabali Sayyed et al., 2018
 Cnemaspis mahsuriae Grismer et al., 2015
-Cnemaspis manoae Amarasinghe &amp; Karunarathna, 2020[37]
-Cnemaspis matahari Nashriq et al., 2022[31]
+Cnemaspis manoae Amarasinghe &amp; Karunarathna, 2020
+Cnemaspis matahari Nashriq et al., 2022
 Cnemaspis mcguirei Grismer et al., 2008
 Cnemaspis menikay Manamendra-Arachchi et al., 2007
-Cnemaspis minang Iskandar et al., 2017[4]
+Cnemaspis minang Iskandar et al., 2017
 Cnemaspis modiglianii Das, 2005
 Cnemaspis molligodai Mendis Wickramasinghe &amp; Munindradasa, 2007
 Cnemaspis monachorum Grismer et al., 2009
 Cnemaspis monticola Manamendra-Arachchi et al., 2007
 Cnemaspis mumpuniae Grismer et al., 2014
-Cnemaspis mundanthuraiensis Khandekar et al., 2022[15]
-Cnemaspis muria Riyanto et al., 2019[38]
+Cnemaspis mundanthuraiensis Khandekar et al., 2022
+Cnemaspis muria Riyanto et al., 2019
 Cnemaspis mysoriensis (Jerdon, 1853)
 Cnemaspis nairi Inger et al., 1984
-Cnemaspis nanayakkarai Karunarathna et al., 2023[26]
-Cnemaspis nandimithrai Karunarathna et al., 2019[18]
+Cnemaspis nanayakkarai Karunarathna et al., 2023
+Cnemaspis nandimithrai Karunarathna et al., 2019
 Cnemaspis narathiwatensis Grismer et al., 2010
 Cnemaspis neangthyi Grismer et al., 2010
-Cnemaspis nicobaricus Chandramouli, 2020[39]
+Cnemaspis nicobaricus Chandramouli, 2020
 Cnemaspis nigridia (Smith, 1925)
-Cnemaspis nigriventris Pal et al., 2021[16]
+Cnemaspis nigriventris Pal et al., 2021
 Cnemaspis nilagirica Manamendra-Arachchi et al., 2007
-Cnemaspis nilgala Karunarathna et al., 2019[40]
-Cnemaspis nimbus Pal et al., 2021[16]
+Cnemaspis nilgala Karunarathna et al., 2019
+Cnemaspis nimbus Pal et al., 2021
 Cnemaspis niyomwanae Grismer et al., 2010
 Cnemaspis nuicamensis Grismer &amp; Ngo, 2007
 Cnemaspis occidentalis Angel, 1943
 Cnemaspis omari Grismer et al., 2014
 Cnemaspis ornata (Beddome, 1870)
 Cnemaspis otai Das &amp; Bauer, 2000
-Cnemaspis pachaimalaiensis Agarwal et al., 2022[7]
-Cnemaspis pagai Iskandar et al., 2017[4]
-Cnemaspis palakkadensis Sayyed et al., 2020[41]
-Cnemaspis palanica Pal et al., 2021[16]
+Cnemaspis pachaimalaiensis Agarwal et al., 2022
+Cnemaspis pagai Iskandar et al., 2017
+Cnemaspis palakkadensis Sayyed et al., 2020
+Cnemaspis palanica Pal et al., 2021
 Cnemaspis paripari Grismer &amp; Onn, 2009
 Cnemaspis pava Manamendra-Arachchi et al., 2007
 Cnemaspis pemanggilensis Grismer &amp; Das, 2006
 Cnemaspis peninsularis Grismer et al., 2014
 Cnemaspis perhentianensis Grismer &amp; Chan, 2008
 Cnemaspis petrodroma Perret, 1986
-Cnemaspis phangngaensis Wood et al., 2017[34]
+Cnemaspis phangngaensis Wood et al., 2017
 Cnemaspis phillipsi Manamendra-Arachchi et al., 2007
 Cnemaspis phuketensis Das &amp; Leong, 2004
 Cnemaspis podihuna Deraniyagala, 1944
@@ -765,65 +785,65 @@
 Cnemaspis pulchra Manamendra-Arachchi et al., 2007
 Cnemaspis punctata Manamendra-Arachchi et al., 2007
 Cnemaspis punctatonuchalis Grismer et al., 2010
-Cnemaspis purnamai Riyanto et al., 2017[42]
+Cnemaspis purnamai Riyanto et al., 2017
 Cnemaspis quattuorseriata (Sternfeld, 1912)
 Cnemaspis rajabasa Amarasinghe et al., 2015
-Cnemaspis rajakarunai Wickramasinghe et al., 2016[43]
-Cnemaspis rajgadensis Sayyed et al., 2021[44]
+Cnemaspis rajakarunai Wickramasinghe et al., 2016
+Cnemaspis rajgadensis Sayyed et al., 2021
 Cnemaspis rammalensis Vidanapathriana et al., 2014
-Cnemaspis ranganaensis Sayyed &amp; Sulakhe, 2020[45]
-Cnemaspis regalis Pal et al., 2021[16]
-Cnemaspis reticulata Sayyed et al., 2023[46]
+Cnemaspis ranganaensis Sayyed &amp; Sulakhe, 2020
+Cnemaspis regalis Pal et al., 2021
+Cnemaspis reticulata Sayyed et al., 2023
 Cnemaspis retigalensis Mendis Wickramasinghe &amp; Munindradasa, 2007
-Cnemaspis rishivalleyensis Agarwal et al., 2020[47]
+Cnemaspis rishivalleyensis Agarwal et al., 2020
 Cnemaspis roticanai Grismer &amp; Onn, 2010
-Cnemaspis rubraoculus Pal et al., 2021[16]
-Cnemaspis rudhira Agarwal et al., 2022[7]
-Cnemaspis sakleshpurensis Khandekar et al., 2022[48]
-Cnemaspis salimalii Agarwal et al., 2022[7]
+Cnemaspis rubraoculus Pal et al., 2021
+Cnemaspis rudhira Agarwal et al., 2022
+Cnemaspis sakleshpurensis Khandekar et al., 2022
+Cnemaspis salimalii Agarwal et al., 2022
 Cnemaspis samanalensis Mendis Wickramasinghe &amp; Munindradasa, 2007
-Cnemaspis samui Ampai et al., 2022[49]
+Cnemaspis samui Ampai et al., 2022
 Cnemaspis scalpensis (Ferguson, 1877)
-Cnemaspis schalleri Khandekar et al., 2021[50]
+Cnemaspis schalleri Khandekar et al., 2021
 Cnemaspis selamatkanmerapoh Grismer et al., 2013
-Cnemaspis selenolagus Grismer et al., 2020[51]
+Cnemaspis selenolagus Grismer et al., 2020
 Cnemaspis shahruli Grismer et al., 2010
-Cnemaspis shevaroyensis Khandekar et al., 2019[52]
+Cnemaspis shevaroyensis Khandekar et al., 2019
 Cnemaspis siamensis (Smith, 1925)
 Cnemaspis silvula Manamendra-Arachchi et al., 2007
-Cnemaspis similan Ampai et al., 2022[49]
-Cnemaspis sirehensis Nashriq et al., 2022[31]
+Cnemaspis similan Ampai et al., 2022
+Cnemaspis sirehensis Nashriq et al., 2022
 Cnemaspis sisparensis (Theobald, 1876)
-Cnemaspis smaug Pal et al., 2021[16]
+Cnemaspis smaug Pal et al., 2021
 Cnemaspis spinicollis (Müller, 1907)
-Cnemaspis stellapulvis Khandekar et al., 2020[53]
+Cnemaspis stellapulvis Khandekar et al., 2020
 Cnemaspis stongensis Grismer et al., 2014
 Cnemaspis sundagekko Grismer et al., 2014
 Cnemaspis sundainsula Grismer et al., 2014
-Cnemaspis tanintharyi Lee et al., 2019[54]
-Cnemaspis tapanuli Iskandar et al., 2017[4]
-Cnemaspis tarutaoensis Ampai et al., 2019[5]
+Cnemaspis tanintharyi Lee et al., 2019
+Cnemaspis tapanuli Iskandar et al., 2017
+Cnemaspis tarutaoensis Ampai et al., 2019
 Cnemaspis temiah Grismer et al., 2014
-Cnemaspis thachanaensis Wood et al., 2017[34]
-Cnemaspis thackerayi Khandekar et al., 2019[52]
-Cnemaspis thayawthadangyi Lee et al., 2019[54]
-Cnemaspis tigris Khandekar et al., 2022[48]
+Cnemaspis thachanaensis Wood et al., 2017
+Cnemaspis thackerayi Khandekar et al., 2019
+Cnemaspis thayawthadangyi Lee et al., 2019
+Cnemaspis tigris Khandekar et al., 2022
 Cnemaspis tropidogaster (Boulenger, 1885)
-Cnemaspis tubaensis Quah et al., 2020[55]
+Cnemaspis tubaensis Quah et al., 2020
 Cnemaspis tucdupensis Grismer &amp; Ngo, 2007
-Cnemaspis umashaankeri Narayanan &amp; Aravind, 2022[56]
+Cnemaspis umashaankeri Narayanan &amp; Aravind, 2022
 Cnemaspis upendrai Manamendra-Arachchi et al., 2007
-Cnemaspis uttaraghati Khandekar et al., 2021[57]
+Cnemaspis uttaraghati Khandekar et al., 2021
 Cnemaspis uzungwae Perret, 1986
 Cnemaspis vandeventeri Grismer et al., 2010
-Cnemaspis vijayae Khandekar et al., 2022[48]
-Cnemaspis wallaceii Pal et al., 2021[16]
+Cnemaspis vijayae Khandekar et al., 2022
+Cnemaspis wallaceii Pal et al., 2021
 Cnemaspis whittenorum Das, 2005
 Cnemaspis wicksi (Stoliczka, 1873)
 Cnemaspis wynadensis (Beddome, 1870)
-Cnemaspis yelagiriensis Agarwal et al., 2020[17]
+Cnemaspis yelagiriensis Agarwal et al., 2020
 Cnemaspis yercaudensis Das &amp; Bauer, 2000
-Cnemaspis zacharyi Cyriac et al., 2020[19]
+Cnemaspis zacharyi Cyriac et al., 2020
 </t>
         </is>
       </c>
@@ -852,7 +872,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Strauch, 1887 : Bemerkungen über die Geckoniden-Sammlung im zoologischen Museum der kaiserlichen Akademie der Wissenschaften zu St. Petersburg. Mémoires de l'Académie impériale des sciences de Saint-Pétersbourg, ser. 7, vol. 35, no 2, p. 1-72 (texte intégral).</t>
         </is>
